--- a/weeklyReport/2_volumeProfile/btcVolumeProfileDf.xlsx
+++ b/weeklyReport/2_volumeProfile/btcVolumeProfileDf.xlsx
@@ -405,13 +405,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>23108.22</v>
+        <v>23080.29</v>
       </c>
       <c r="C2">
-        <v>22910.65</v>
+        <v>22788.04</v>
       </c>
       <c r="D2">
-        <v>23211.89</v>
+        <v>23126.27</v>
       </c>
     </row>
   </sheetData>
